--- a/cities_old.xlsx
+++ b/cities_old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-day\PycharmProjects\2gis_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A8F7EC9-FA61-458C-86AA-C1CBEDD446EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A175490-8EE0-4848-992A-62F2449C3573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1EAADDEE-95D8-4468-B752-4BCFE8659E77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EAADDEE-95D8-4468-B752-4BCFE8659E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1217,16 +1217,16 @@
   <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>171</v>
       </c>
@@ -1249,99 +1249,99 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1544</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>13010</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>5602</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1634</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1544</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>118</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>120</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>121</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>122</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>123</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>124</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>125</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>126</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>127</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>128</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>129</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>130</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>131</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>132</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>133</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>134</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>135</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>136</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>137</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>138</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>139</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>140</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>141</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>142</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>143</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>144</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>145</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>146</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>147</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>148</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>149</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>150</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>151</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>152</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>153</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>154</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>155</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>156</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>157</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>158</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>159</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>160</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>161</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>162</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>163</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>164</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>165</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>166</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>167</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>168</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>169</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>170</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>171</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>172</v>
       </c>
@@ -3372,9 +3372,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="Санкт-Петербург" display="https://ru.wikipedia.org/wiki/%D0%A1%D0%B0%D0%BD%D0%BA%D1%82-%D0%9F%D0%B5%D1%82%D0%B5%D1%80%D0%B1%D1%83%D1%80%D0%B3" xr:uid="{668FFF64-745C-4022-8730-ABD28D64919F}"/>
-    <hyperlink ref="B4" r:id="rId2" tooltip="Новосибирск" display="https://ru.wikipedia.org/wiki/%D0%9D%D0%BE%D0%B2%D0%BE%D1%81%D0%B8%D0%B1%D0%B8%D1%80%D1%81%D0%BA" xr:uid="{2C22539F-57A4-46FC-A770-866A6CCDF62A}"/>
-    <hyperlink ref="B5" r:id="rId3" tooltip="Екатеринбург" display="https://ru.wikipedia.org/wiki/%D0%95%D0%BA%D0%B0%D1%82%D0%B5%D1%80%D0%B8%D0%BD%D0%B1%D1%83%D1%80%D0%B3" xr:uid="{A8A7C5AC-82CD-45AE-9A76-12CFAC6BB2CC}"/>
+    <hyperlink ref="B4" r:id="rId1" tooltip="Санкт-Петербург" display="https://ru.wikipedia.org/wiki/%D0%A1%D0%B0%D0%BD%D0%BA%D1%82-%D0%9F%D0%B5%D1%82%D0%B5%D1%80%D0%B1%D1%83%D1%80%D0%B3" xr:uid="{668FFF64-745C-4022-8730-ABD28D64919F}"/>
+    <hyperlink ref="B5" r:id="rId2" tooltip="Новосибирск" display="https://ru.wikipedia.org/wiki/%D0%9D%D0%BE%D0%B2%D0%BE%D1%81%D0%B8%D0%B1%D0%B8%D1%80%D1%81%D0%BA" xr:uid="{2C22539F-57A4-46FC-A770-866A6CCDF62A}"/>
+    <hyperlink ref="B2" r:id="rId3" tooltip="Екатеринбург" display="https://ru.wikipedia.org/wiki/%D0%95%D0%BA%D0%B0%D1%82%D0%B5%D1%80%D0%B8%D0%BD%D0%B1%D1%83%D1%80%D0%B3" xr:uid="{A8A7C5AC-82CD-45AE-9A76-12CFAC6BB2CC}"/>
     <hyperlink ref="B6" r:id="rId4" tooltip="Казань" display="https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D0%B7%D0%B0%D0%BD%D1%8C" xr:uid="{76B83231-DE76-4B42-9186-8DBD262E2EDD}"/>
     <hyperlink ref="B7" r:id="rId5" tooltip="Нижний Новгород" display="https://ru.wikipedia.org/wiki/%D0%9D%D0%B8%D0%B6%D0%BD%D0%B8%D0%B9_%D0%9D%D0%BE%D0%B2%D0%B3%D0%BE%D1%80%D0%BE%D0%B4" xr:uid="{42EEF827-8E4B-4AA7-84D8-47C566DC47AC}"/>
     <hyperlink ref="B8" r:id="rId6" tooltip="Челябинск" display="https://ru.wikipedia.org/wiki/%D0%A7%D0%B5%D0%BB%D1%8F%D0%B1%D0%B8%D0%BD%D1%81%D0%BA" xr:uid="{66952B4A-5D0C-42F6-8D90-678B46C966A8}"/>
@@ -3539,7 +3539,7 @@
     <hyperlink ref="B170" r:id="rId165" tooltip="Ачинск" display="https://ru.wikipedia.org/wiki/%D0%90%D1%87%D0%B8%D0%BD%D1%81%D0%BA" xr:uid="{6F0A9A64-08CB-46E2-8E6F-CB8F5A55B084}"/>
     <hyperlink ref="B171" r:id="rId166" tooltip="Тобольск" display="https://ru.wikipedia.org/wiki/%D0%A2%D0%BE%D0%B1%D0%BE%D0%BB%D1%8C%D1%81%D0%BA" xr:uid="{0A1C6574-0DF7-45C7-B967-AB359FFD3A43}"/>
     <hyperlink ref="B172" r:id="rId167" tooltip="Ноябрьск" display="https://ru.wikipedia.org/wiki/%D0%9D%D0%BE%D1%8F%D0%B1%D1%80%D1%8C%D1%81%D0%BA" xr:uid="{D1F04E1B-BA22-426C-853D-1E01FE36BF6F}"/>
-    <hyperlink ref="B2" r:id="rId168" tooltip="Москва" display="https://ru.wikipedia.org/wiki/%D0%9C%D0%BE%D1%81%D0%BA%D0%B2%D0%B0" xr:uid="{6B295436-772E-45B2-BC81-F36732B5C8B1}"/>
+    <hyperlink ref="B3" r:id="rId168" tooltip="Москва" display="https://ru.wikipedia.org/wiki/%D0%9C%D0%BE%D1%81%D0%BA%D0%B2%D0%B0" xr:uid="{6B295436-772E-45B2-BC81-F36732B5C8B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId169"/>
